--- a/REVIEWS/Q1_Literature_Matrix.xlsx
+++ b/REVIEWS/Q1_Literature_Matrix.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agrippina Mwangi\Documents\GitHub\Renewable_Energy_Integration\REVIEWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_w_mwangi_uu_nl/Documents/Documents/GitHub/Renewable_Energy_Integration/REVIEWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F929806-89B2-4762-B346-760C741E1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{6F929806-89B2-4762-B346-760C741E1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D63495-B8E4-41C2-8E7C-D4A849365323}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{BC74984E-42A9-41C4-A70B-4670A74AF3C1}"/>
+    <workbookView xWindow="11520" yWindow="768" windowWidth="11280" windowHeight="8964" xr2:uid="{BC74984E-42A9-41C4-A70B-4670A74AF3C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Literature review" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +36,92 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8A18C161-4534-4078-96A1-CBE0E1A23C61}</author>
+    <author>tc={6B27529E-D421-455C-901C-D413A2453B13}</author>
+    <author>tc={AD1B8C16-0154-4211-8A73-90CE62352A82}</author>
+    <author>tc={1B6AF72F-3AE5-42FA-A270-3224CCB5750E}</author>
+    <author>tc={140BA482-AB7B-4041-8F3C-860011571A26}</author>
+    <author>tc={13A67D39-E8AE-49DC-A93F-6700F999B5FA}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8A18C161-4534-4078-96A1-CBE0E1A23C61}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{6B27529E-D421-455C-901C-D413A2453B13}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    The Literature review matrix:
-(What is it?How to use it? How to make it work for you)
-* It is an important tool in organizing your research. A spreadsheet that helps organize what a researcher is reading.</t>
+    VANETs use mobile nodes (vehicles) - high mobility and follow organized routes not moving randomly. 
+VANET services: route planning, traffic alert dissemination, context-aware infotainments, mobile vehicular cloud services.
+The current architecture experiences challenges with the exponentially increasing number of mobile nodes, efficient resource utilization, unbalanced flow traffic, geo-graphical addressing, delay constraint due to high mobility and unreliable connectivity and QoS.
+SDN - the separation of the data plane and the control plane simplifies network management which is quite complicated when the number of nodes dramatically increases while the global, centralized intelligence will enable and improve VANET services.
+SDN: 
+Control plane - network control
+Data plane - forwarding functions
+SDN-based architectures provide centralied controller to the network with global knowledge of the network state which are capable of controlling network infrastructure in a vendor-independent manner. 
+OpenFlow protocol is used in the SBI of the SDN architecture(Region between the infrastructure layer and the control layer)
+The OpenFlow enabling networking switches and routers maintain a forwarding flow-table containing three entries: rules, actions (associated with each rule defining how packets should be processed), statistic counting (the number of packets and bytes for the flow)
+Reply:
+    The OpenFlow protocol simulates a secure channel for the communications to SDN controller, allowing data packets and flow-rule packet to be remotely sent from the controller using OpenFlow protocol. 
+The SDN controller is in charge of making decisions on adding, deleting, and modifying the flow rules and actions on the forwarding flow table via OpenFlow thus enabling the programmability to automatically configure the network. 
+SDN applications and services directly communicate their requirements and network actions via the North-bound interface (NBI) APIs to the SDN controller.</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{AD1B8C16-0154-4211-8A73-90CE62352A82}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    FSDN - the SDN based VANET architecture leverages fog computing. 
+* SDN controller
+* SDN wireless nodes
+* SDN Road side unit controller
+* Cellular base station (BS)
+FSDN VANET architecutre is operated in a heterogenous network environment in which forwarding infrastructure uses several wireless technologies to communicate. 
+The SDN wireless nodes are supposed to support fallback mechanism to turn back to conventional operations once SDN controller connection is lost.
+To enable fog computing framework for the SDN-based VANET system, SDN controller, RSUCs, and DSs are not only equipped with SDN capability but also offer virtualization for enabling cloud (Fog) services.
+Services are hosted at these VMs allowing service migration and replication. The technique is widely used in data centers for improving portability, resource utilization and fault tolerance.
+Reply:
+    Services need an orchestration mechanism to disseminate information of data forwarding rules changes and service hosting. 
+The orchestration is in charge of service instantiation, replication and migration.
+Reply:
+    Fog controller incorporates the SDN controller for automatic update of service hosting and data forwarding rules. - This is the benefit of integrating SDN in the fog architecture. The reconfiguration of service hosting, instantiation, migration, replication and data flow rules is costly, resulting in increasing latency and deteriorating QoE.
+Reply:
+    FSDN can dynamicalaly adapt to topology changes and reconfigures accordingly to guarantee the QoE while being able to find the optimal reconfiguration.</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{1B6AF72F-3AE5-42FA-A270-3224CCB5750E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fog computing supports IoT for services that require sensitive-delay and context-aware processing.
+To deploy fog computing, an orchestration is required to manage resources and services across edge devices. Fog services are provisioned, managed, and tracked among such devices.
+V2V and V2I are standardized by IEEE WAVE. The advances in OBUs and communicatiosn integrated in vehicles, RSUs and RSUCs change the traditional VANETs into Intelligent Vehicle Grid.</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="3" shapeId="0" xr:uid="{140BA482-AB7B-4041-8F3C-860011571A26}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Harnessing emerging technologies such as SDN and NFV, cloud &amp; edge computing technologies to drive operational efficiency at an industrial scale. 
+The growth in IIoT end devices is spurred by cost-effectiveness and the ease of availability of required devices like processors, sensors, and connected systems.
+Reply:
+    These technologies provide a unique value proposition towards the realization of IIoT vision:
+* SDN
+* NFV
+* MEC (Multi-access edge computing)
+* Cloud computing</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="4" shapeId="0" xr:uid="{13A67D39-E8AE-49DC-A93F-6700F999B5FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    * The model took a centralized approach to resource management while distributed architecture was utilized for storage
+* A heuristic approach to resource management for a satellite communication system. Resource optimization is related to the classical multi-knapsack problem (MKP) and allocation is based on subscriber request, priority level, as well as the assured bandwidths. * The method also measures the satisfaction level of the allocation process. 
+* Mixed-integer nonlinear stochastic optimization with long-term constraints based on delay-optimal fog configuration (D-optimal), Noncooperative Fog configuration (NCOP), and single slot constraint (SSC)
+Reply:
+    An automatic resource provisioning approach for cloud environments based on the concept of control monitor-analyze-plan-execute (MAPE) loop.  Meant to improve resource provisioning for cloud services by reducing the overall cost of resources, increasing resource utilization and minimizing SLA violations for cloud services.</t>
       </text>
     </comment>
   </commentList>
@@ -54,23 +129,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Author/Date</t>
   </si>
   <si>
-    <t>Theoretical/Conceptual Framework</t>
-  </si>
-  <si>
-    <t>Research Questions/Hypotheses</t>
-  </si>
-  <si>
     <t>Methodology</t>
   </si>
   <si>
-    <t>Analysis &amp; Results</t>
-  </si>
-  <si>
     <t>Conclusions</t>
   </si>
   <si>
@@ -78,6 +144,103 @@
   </si>
   <si>
     <t>Implications for practice</t>
+  </si>
+  <si>
+    <t>Paper Title</t>
+  </si>
+  <si>
+    <t>Nguyen B Truong, Gyu Myoung Lee, Yacine Ghamri-Doudane</t>
+  </si>
+  <si>
+    <t>Software defined networking-based vehicular adhoc network with fog computing</t>
+  </si>
+  <si>
+    <t>Problem statement</t>
+  </si>
+  <si>
+    <t>VANETs face many difficulties in deployment and management because of poor connectivity, less scalability, less flexibility, and less intelligence</t>
+  </si>
+  <si>
+    <t>Research proposal</t>
+  </si>
+  <si>
+    <t>Propose a new VANET architecture (FSDN) which combines the two emergent computing and network paradigm SDN and fog computing as a prospective solution</t>
+  </si>
+  <si>
+    <t>The use of SDN to improve network functions. The use of fog computing to bring the cloud services closer to the edge (end user nodes) offering low latency, location awareness, and mobility support. Leveraging SDN results in capability to automatically reconfigure for better communication. The SDN wireless nodes are supposed to support fallback mechanism to turn back to conventional operations once SDN controller connection is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN can facilitate efficient management and deployment of network services.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run simulation for the proposed architecture, models, protocols, and services using ns-2, ns-3, Mininet, SUMO or on a real-test bed. - net6501board.
+The switchboard has openvswitch (OpenFlow-enabled) installed as a forwarding device with several PCs installed Open SDN controller being floodlight
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A more appropriate resource management and fog orchestration models that take SDN characteristics into account to support fog computing. 
+Need to consider particular properties of BS and RSUC as well as cooperate with SDN controller for network knowledge to optimize the resource utilization and service hosting, migration and replication. 
+Designing protocols at SDN controller for optimizing data forwarding rules modification, improving the load balancing technique and reducing services latency by utilizing the available resources in BSs, RSUCs, RSUs, and OBUs integrated in vehicles.  
+The fallback/backup mechanisms in case of unreliable connections or failure between vehicles to the SDN controller to maintain services. 
+</t>
+  </si>
+  <si>
+    <t>use cases for non-safety service - data streaming; and safety service - lane change assistance. 
+Use of heuristic algorithm to minize the costs (reconfiguration overhead) for cloud resource management models to our architectural design</t>
+  </si>
+  <si>
+    <t>Jude Okwuibe
+Juuso Haavisto
+Ivana Kovacevic
+Erkki harjula
+ijaz ahmad
+mika ylianttila</t>
+  </si>
+  <si>
+    <t>SDN-enable resource orchestration for industrial IoT in collaborative edge-cloud networks</t>
+  </si>
+  <si>
+    <t>The heterogenous nature of IIoT devices and services suggests frequent changes in resource requirements for different services, applications, and use cases. 
+With such unpredictability, resource orchestration can be quite complicated even in basic use cases and almost impossible to handle in some extensively dynamic use cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDRM - An SDN-enabled resource management scheme. 
+The proposed approach models reosurce allocation as a constraint satisfaction problem (CSP) where optimality is based on the solution of a predefined satisfiability (SAT) problem.
+</t>
+  </si>
+  <si>
+    <t>Analysis &amp; Results (Key findings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big data forms part of IIoT as such the cloud is limited in its ability to effectively support and manage it; citing a lack of agility - the ability to process and share required data across nodes in a timely responsive fashion. 
+* Resource service model for an underground intelligent mine leveraging IoT platforms based on transparent computing (TC). The paper discusses the advantages of moving the processing from the data centers to the edge, cloud systems can better 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The model supports centralized management of all resources using a software defined approach.
+The resource approach is modelled on SAVILE ROW using ESSENSE PRIME modeling language. The network model is implemented on the CloudSimSDN and PureEdgeSim
+ Analyse the performance improvements of leveraging SDN and constraint programming for resource orchestration in IIoT. </t>
+  </si>
+  <si>
+    <t>The importance of the SDRM in not only ensuring optimal resource allocation for IIoT but also ensuring that these solutions are provided in a dynamic and timely fashion. 
+The SAT constraint modelling approach is well poised to handle resource allocation for the dynamic and increasingly heterogenous IIoT use cases in Industry 4.0
+The results show the benefits of edge-cloud integration with regards to CPU utilization, network utilization as well as task success rates. The edge cloud implementations showing substantial improvements for these performance metrics especially the tasks success rates.</t>
+  </si>
+  <si>
+    <t>SDN integration also demonstrated significant performance improvements with regards to power consumption and processing time for different VM allocation schemes.
+The approach faces the challenge of security and privacy considering that IIoT devices exist as nodes on the network hence just like other network nodes, can be subject to adversarial attacks. 
+The challenge of coexistence and interoperability given that a typical IIoT system consists of many coexisting devices deployed in close proximity in the limited spectrum.</t>
+  </si>
+  <si>
+    <t>Soumya Ranjan Moharana
+Vijay Kumar Jha
+Anurag Satpathy
+Sourav Kanti Addya
+Ashok Kumar Turuk
+Banshidhar Majhi</t>
+  </si>
+  <si>
+    <t>Secure key distribution in IoT cloud networks</t>
   </si>
 </sst>
 </file>
@@ -128,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,15 +299,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +354,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Agrippina Mwangi" id="{422FEC44-ABF7-483D-8D5D-FC6CE9D761C9}" userId="S::amwangi@andrew.cmu.edu::168da47f-75f9-4401-adea-5a1884076765" providerId="AD"/>
+  <person displayName="Mwangi, A.W. (Agrippina Wanjiru)" id="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" userId="S::a.w.mwangi@uu.nl::46517c3c-63dd-4f94-8fd6-d3c21a943425" providerId="AD"/>
 </personList>
 </file>
 
@@ -465,60 +655,259 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2022-01-12T07:24:44.94" personId="{422FEC44-ABF7-483D-8D5D-FC6CE9D761C9}" id="{8A18C161-4534-4078-96A1-CBE0E1A23C61}">
-    <text>The Literature review matrix:
-(What is it?How to use it? How to make it work for you)
-* It is an important tool in organizing your research. A spreadsheet that helps organize what a researcher is reading.</text>
+  <threadedComment ref="C2" dT="2022-02-09T09:28:48.92" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{6B27529E-D421-455C-901C-D413A2453B13}">
+    <text>VANETs use mobile nodes (vehicles) - high mobility and follow organized routes not moving randomly. 
+VANET services: route planning, traffic alert dissemination, context-aware infotainments, mobile vehicular cloud services.
+The current architecture experiences challenges with the exponentially increasing number of mobile nodes, efficient resource utilization, unbalanced flow traffic, geo-graphical addressing, delay constraint due to high mobility and unreliable connectivity and QoS.
+SDN - the separation of the data plane and the control plane simplifies network management which is quite complicated when the number of nodes dramatically increases while the global, centralized intelligence will enable and improve VANET services.
+SDN: 
+Control plane - network control
+Data plane - forwarding functions
+SDN-based architectures provide centralied controller to the network with global knowledge of the network state which are capable of controlling network infrastructure in a vendor-independent manner. 
+OpenFlow protocol is used in the SBI of the SDN architecture(Region between the infrastructure layer and the control layer)
+The OpenFlow enabling networking switches and routers maintain a forwarding flow-table containing three entries: rules, actions (associated with each rule defining how packets should be processed), statistic counting (the number of packets and bytes for the flow)</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2022-02-09T09:33:40.99" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{0427B758-51E1-4646-9EE1-A16B086D73F5}" parentId="{6B27529E-D421-455C-901C-D413A2453B13}">
+    <text>The OpenFlow protocol simulates a secure channel for the communications to SDN controller, allowing data packets and flow-rule packet to be remotely sent from the controller using OpenFlow protocol. 
+The SDN controller is in charge of making decisions on adding, deleting, and modifying the flow rules and actions on the forwarding flow table via OpenFlow thus enabling the programmability to automatically configure the network. 
+SDN applications and services directly communicate their requirements and network actions via the North-bound interface (NBI) APIs to the SDN controller.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-02-09T10:23:11.29" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{AD1B8C16-0154-4211-8A73-90CE62352A82}">
+    <text>FSDN - the SDN based VANET architecture leverages fog computing. 
+* SDN controller
+* SDN wireless nodes
+* SDN Road side unit controller
+* Cellular base station (BS)
+FSDN VANET architecutre is operated in a heterogenous network environment in which forwarding infrastructure uses several wireless technologies to communicate. 
+The SDN wireless nodes are supposed to support fallback mechanism to turn back to conventional operations once SDN controller connection is lost.
+To enable fog computing framework for the SDN-based VANET system, SDN controller, RSUCs, and DSs are not only equipped with SDN capability but also offer virtualization for enabling cloud (Fog) services.
+Services are hosted at these VMs allowing service migration and replication. The technique is widely used in data centers for improving portability, resource utilization and fault tolerance.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-02-09T10:31:46.09" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{A854519E-146E-4242-A18A-7788710B55D3}" parentId="{AD1B8C16-0154-4211-8A73-90CE62352A82}">
+    <text>Services need an orchestration mechanism to disseminate information of data forwarding rules changes and service hosting. 
+The orchestration is in charge of service instantiation, replication and migration.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-02-09T10:34:32.43" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{26903ABC-805F-4261-94C7-EE086A587673}" parentId="{AD1B8C16-0154-4211-8A73-90CE62352A82}">
+    <text>Fog controller incorporates the SDN controller for automatic update of service hosting and data forwarding rules. - This is the benefit of integrating SDN in the fog architecture. The reconfiguration of service hosting, instantiation, migration, replication and data flow rules is costly, resulting in increasing latency and deteriorating QoE.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-02-09T10:39:03.09" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{7397785F-F6CA-4422-8BF2-F7C1E285C873}" parentId="{AD1B8C16-0154-4211-8A73-90CE62352A82}">
+    <text>FSDN can dynamicalaly adapt to topology changes and reconfigures accordingly to guarantee the QoE while being able to find the optimal reconfiguration.</text>
+  </threadedComment>
+  <threadedComment ref="F2" dT="2022-02-09T09:54:26.07" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{1B6AF72F-3AE5-42FA-A270-3224CCB5750E}">
+    <text>Fog computing supports IoT for services that require sensitive-delay and context-aware processing.
+To deploy fog computing, an orchestration is required to manage resources and services across edge devices. Fog services are provisioned, managed, and tracked among such devices.
+V2V and V2I are standardized by IEEE WAVE. The advances in OBUs and communicatiosn integrated in vehicles, RSUs and RSUCs change the traditional VANETs into Intelligent Vehicle Grid.</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2022-02-09T11:19:40.19" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{140BA482-AB7B-4041-8F3C-860011571A26}">
+    <text>Harnessing emerging technologies such as SDN and NFV, cloud &amp; edge computing technologies to drive operational efficiency at an industrial scale. 
+The growth in IIoT end devices is spurred by cost-effectiveness and the ease of availability of required devices like processors, sensors, and connected systems.</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2022-02-09T11:20:44.85" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{CB51603B-9E65-4123-ADC3-D276E8D41E08}" parentId="{140BA482-AB7B-4041-8F3C-860011571A26}">
+    <text>These technologies provide a unique value proposition towards the realization of IIoT vision:
+* SDN
+* NFV
+* MEC (Multi-access edge computing)
+* Cloud computing</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2022-02-09T11:36:48.65" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{13A67D39-E8AE-49DC-A93F-6700F999B5FA}">
+    <text>* The model took a centralized approach to resource management while distributed architecture was utilized for storage
+* A heuristic approach to resource management for a satellite communication system. Resource optimization is related to the classical multi-knapsack problem (MKP) and allocation is based on subscriber request, priority level, as well as the assured bandwidths. * The method also measures the satisfaction level of the allocation process. 
+* Mixed-integer nonlinear stochastic optimization with long-term constraints based on delay-optimal fog configuration (D-optimal), Noncooperative Fog configuration (NCOP), and single slot constraint (SSC)</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2022-02-09T11:41:34.61" personId="{FCE7B28F-62E7-40A4-A3FB-CBB14FF5DBE6}" id="{29F861B5-09DD-40CD-A063-316C657CD2C3}" parentId="{13A67D39-E8AE-49DC-A93F-6700F999B5FA}">
+    <text>An automatic resource provisioning approach for cloud environments based on the concept of control monitor-analyze-plan-execute (MAPE) loop.  Meant to improve resource provisioning for cloud services by reducing the overall cost of resources, increasing resource utilization and minimizing SLA violations for cloud services.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EB99AD-3FD8-4DFA-873F-032CE931579A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="264" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
